--- a/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1186,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1224,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.52</v>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1634,14 +1699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1650,14 +1737,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1666,13 +1775,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.89</v>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.52</v>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2049,14 +2136,134 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -2065,14 +2272,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -2081,13 +2288,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600535-天士力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.89</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -805,7 +992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1916,138 +2103,6 @@
       </c>
       <c r="H5" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1113</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2122,22 +2177,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.1113</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2160,22 +2215,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2188,6 +2243,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
